--- a/data/trans_orig/P3A_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F95D7D5-E1FE-4ABA-B6C3-7FC65D32846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CF8003-0982-48AB-A228-84F6971E02B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCDE84FF-59D0-40E5-91EE-C89AC0FF65B4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{07DA1078-D5A6-417A-BA96-BCBC9B9EE1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>86,62%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>24,32%</t>
@@ -383,9 +326,6 @@
     <t>16,39%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
     <t>17,27%</t>
   </si>
   <si>
@@ -413,925 +353,772 @@
     <t>82,73%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2016 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>80,15%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEEB57E-BD63-4434-A583-90C2DDED3AA2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC018AE-1ABD-40E7-AF93-50DC0A02E7A4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1861,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>19523</v>
+        <v>108853</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1876,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="I4" s="7">
-        <v>16502</v>
+        <v>77368</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1891,10 +1678,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="N4" s="7">
-        <v>36024</v>
+        <v>186221</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1912,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>88</v>
+        <v>578</v>
       </c>
       <c r="D5" s="7">
-        <v>95835</v>
+        <v>585159</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1927,10 +1714,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>616</v>
       </c>
       <c r="I5" s="7">
-        <v>96253</v>
+        <v>609830</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1942,10 +1729,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>197</v>
+        <v>1194</v>
       </c>
       <c r="N5" s="7">
-        <v>192089</v>
+        <v>1194989</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1963,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687198</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381210</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>89331</v>
+        <v>191159</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2031,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>60866</v>
+        <v>99464</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2046,10 +1833,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="N7" s="7">
-        <v>150197</v>
+        <v>290623</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2067,10 +1854,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>490</v>
+        <v>725</v>
       </c>
       <c r="D8" s="7">
-        <v>489323</v>
+        <v>770641</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2082,10 +1869,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>507</v>
+        <v>815</v>
       </c>
       <c r="I8" s="7">
-        <v>513577</v>
+        <v>868929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2097,10 +1884,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>997</v>
+        <v>1540</v>
       </c>
       <c r="N8" s="7">
-        <v>1002900</v>
+        <v>1639570</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2118,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>574443</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153097</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7">
-        <v>191159</v>
+        <v>165015</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2186,10 +1973,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>99464</v>
+        <v>95372</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2201,10 +1988,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="N10" s="7">
-        <v>290623</v>
+        <v>260387</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2222,10 +2009,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>725</v>
+        <v>492</v>
       </c>
       <c r="D11" s="7">
-        <v>770641</v>
+        <v>513494</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2237,10 +2024,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>815</v>
+        <v>597</v>
       </c>
       <c r="I11" s="7">
-        <v>868929</v>
+        <v>585071</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2252,10 +2039,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1540</v>
+        <v>1089</v>
       </c>
       <c r="N11" s="7">
-        <v>1639570</v>
+        <v>1098565</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2273,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>693</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>680443</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2090,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1334</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1358952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>165015</v>
+        <v>219985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2341,10 +2128,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="I13" s="7">
-        <v>95371</v>
+        <v>132445</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2356,10 +2143,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="N13" s="7">
-        <v>260387</v>
+        <v>352430</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2377,10 +2164,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>492</v>
+        <v>769</v>
       </c>
       <c r="D14" s="7">
-        <v>513494</v>
+        <v>721355</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2392,10 +2179,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>597</v>
+        <v>868</v>
       </c>
       <c r="I14" s="7">
-        <v>585071</v>
+        <v>906167</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2407,10 +2194,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1089</v>
+        <v>1637</v>
       </c>
       <c r="N14" s="7">
-        <v>1098565</v>
+        <v>1627522</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2428,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2230,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>693</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>680442</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2245,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1334</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1358952</v>
+        <v>1979952</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2475,55 +2262,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>224</v>
+        <v>649</v>
       </c>
       <c r="D16" s="7">
-        <v>219985</v>
+        <v>685012</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>397</v>
+      </c>
+      <c r="I16" s="7">
+        <v>404648</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>129</v>
-      </c>
-      <c r="I16" s="7">
-        <v>132445</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1046</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1089661</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>353</v>
-      </c>
-      <c r="N16" s="7">
-        <v>352430</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2319,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>769</v>
+        <v>2564</v>
       </c>
       <c r="D17" s="7">
-        <v>721355</v>
+        <v>2590649</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2896</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2969997</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>868</v>
-      </c>
-      <c r="I17" s="7">
-        <v>906167</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5460</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5560646</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1637</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1627522</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941340</v>
+        <v>3275661</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2385,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3293</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3374645</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2400,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1979952</v>
+        <v>6650307</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2629,171 +2416,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>649</v>
-      </c>
-      <c r="D19" s="7">
-        <v>685012</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>397</v>
-      </c>
-      <c r="I19" s="7">
-        <v>404648</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1046</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1089661</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2564</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2590650</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2896</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2969998</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5460</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5560646</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3293</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3374646</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6650307</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +2437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146589C-D375-4604-B9BB-5CDD73393E0C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C409E-B346-42AF-A81B-FEF6CF5CDE06}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,49 +2555,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="D4" s="7">
-        <v>22274</v>
+        <v>179129</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7">
-        <v>9884</v>
+        <v>83342</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="N4" s="7">
-        <v>32158</v>
+        <v>262471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2606,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>99</v>
+        <v>506</v>
       </c>
       <c r="D5" s="7">
-        <v>93491</v>
+        <v>524340</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>90</v>
+        <v>573</v>
       </c>
       <c r="I5" s="7">
-        <v>102021</v>
+        <v>613708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>189</v>
+        <v>1079</v>
       </c>
       <c r="N5" s="7">
-        <v>195512</v>
+        <v>1138048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2672,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2687,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2710,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="D7" s="7">
-        <v>156855</v>
+        <v>281597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="I7" s="7">
-        <v>73457</v>
+        <v>143101</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="N7" s="7">
-        <v>230312</v>
+        <v>424698</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2761,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>407</v>
+        <v>675</v>
       </c>
       <c r="D8" s="7">
-        <v>430849</v>
+        <v>735291</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>483</v>
+        <v>810</v>
       </c>
       <c r="I8" s="7">
-        <v>511688</v>
+        <v>889083</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
-        <v>890</v>
+        <v>1485</v>
       </c>
       <c r="N8" s="7">
-        <v>942537</v>
+        <v>1624374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1016888</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2827,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2049072</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,49 +2865,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>281597</v>
+        <v>200435</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>143101</v>
+        <v>125726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>390</v>
+        <v>294</v>
       </c>
       <c r="N10" s="7">
-        <v>424698</v>
+        <v>326161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2916,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>675</v>
+        <v>507</v>
       </c>
       <c r="D11" s="7">
-        <v>735291</v>
+        <v>557188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>810</v>
+        <v>591</v>
       </c>
       <c r="I11" s="7">
-        <v>889083</v>
+        <v>649447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1485</v>
+        <v>1098</v>
       </c>
       <c r="N11" s="7">
-        <v>1624374</v>
+        <v>1206635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1016888</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +2982,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>775173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +2997,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2049072</v>
+        <v>1532796</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,49 +3020,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>200435</v>
+        <v>279586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="I13" s="7">
-        <v>125726</v>
+        <v>175963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>294</v>
+        <v>439</v>
       </c>
       <c r="N13" s="7">
-        <v>326161</v>
+        <v>455549</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3071,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>507</v>
+        <v>639</v>
       </c>
       <c r="D14" s="7">
-        <v>557188</v>
+        <v>668153</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>591</v>
+        <v>835</v>
       </c>
       <c r="I14" s="7">
-        <v>649447</v>
+        <v>875938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>1098</v>
+        <v>1474</v>
       </c>
       <c r="N14" s="7">
-        <v>1206635</v>
+        <v>1544091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3137,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>775173</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3152,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1532796</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3538,55 +3169,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>271</v>
+        <v>881</v>
       </c>
       <c r="D16" s="7">
-        <v>279586</v>
+        <v>940747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>168</v>
+        <v>487</v>
       </c>
       <c r="I16" s="7">
-        <v>175963</v>
+        <v>528131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>439</v>
+        <v>1368</v>
       </c>
       <c r="N16" s="7">
-        <v>455549</v>
+        <v>1468879</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3226,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>639</v>
+        <v>2327</v>
       </c>
       <c r="D17" s="7">
-        <v>668153</v>
+        <v>2484972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>835</v>
+        <v>2809</v>
       </c>
       <c r="I17" s="7">
-        <v>875938</v>
+        <v>3028177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>1474</v>
+        <v>5136</v>
       </c>
       <c r="N17" s="7">
-        <v>1544091</v>
+        <v>5513148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3425719</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3292,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3556308</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3307,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6982027</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3692,171 +3323,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>881</v>
-      </c>
-      <c r="D19" s="7">
-        <v>940747</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>487</v>
-      </c>
-      <c r="I19" s="7">
-        <v>528131</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1368</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1468879</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2327</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2484972</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2809</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3028177</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5136</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5513148</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425719</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3556308</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6982027</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3869,8 +3344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890DBBE6-A485-49F9-B815-A5163EEB03C1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E5C635-62B9-47DF-94E5-3BE2ACD327A6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3886,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,49 +3462,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>30156</v>
+        <v>186099</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I4" s="7">
-        <v>21252</v>
+        <v>89909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="N4" s="7">
-        <v>51407</v>
+        <v>276008</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3513,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>478</v>
       </c>
       <c r="D5" s="7">
-        <v>86390</v>
+        <v>488701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>94</v>
+        <v>573</v>
       </c>
       <c r="I5" s="7">
-        <v>92108</v>
+        <v>581996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>179</v>
+        <v>1051</v>
       </c>
       <c r="N5" s="7">
-        <v>178499</v>
+        <v>1070697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3579,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>671905</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3594,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1346705</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3617,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="D7" s="7">
-        <v>155943</v>
+        <v>321720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="I7" s="7">
-        <v>68658</v>
+        <v>203060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
+        <v>489</v>
+      </c>
+      <c r="N7" s="7">
+        <v>524781</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="N7" s="7">
-        <v>224601</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3668,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>393</v>
+        <v>656</v>
       </c>
       <c r="D8" s="7">
-        <v>402311</v>
+        <v>699738</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>479</v>
+        <v>781</v>
       </c>
       <c r="I8" s="7">
-        <v>489887</v>
+        <v>838899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>872</v>
+        <v>1437</v>
       </c>
       <c r="N8" s="7">
-        <v>892197</v>
+        <v>1538636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1021458</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3734,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>558545</v>
+        <v>1041959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3749,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1089</v>
+        <v>1926</v>
       </c>
       <c r="N9" s="7">
-        <v>1116798</v>
+        <v>2063417</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,49 +3772,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="D10" s="7">
-        <v>321720</v>
+        <v>247497</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="I10" s="7">
-        <v>203060</v>
+        <v>162790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>489</v>
+        <v>386</v>
       </c>
       <c r="N10" s="7">
-        <v>524781</v>
+        <v>410287</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3823,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>656</v>
+        <v>466</v>
       </c>
       <c r="D11" s="7">
-        <v>699738</v>
+        <v>508192</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>781</v>
+        <v>575</v>
       </c>
       <c r="I11" s="7">
-        <v>838899</v>
+        <v>620189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>1437</v>
+        <v>1041</v>
       </c>
       <c r="N11" s="7">
-        <v>1538636</v>
+        <v>1128381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>693</v>
       </c>
       <c r="D12" s="7">
-        <v>1021458</v>
+        <v>755689</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3889,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>1041959</v>
+        <v>782979</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1427</v>
       </c>
       <c r="N12" s="7">
-        <v>2063417</v>
+        <v>1538668</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,49 +3927,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="D13" s="7">
-        <v>247497</v>
+        <v>341938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I13" s="7">
-        <v>162790</v>
+        <v>201389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>386</v>
+        <v>530</v>
       </c>
       <c r="N13" s="7">
-        <v>410287</v>
+        <v>543327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +3978,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>466</v>
+        <v>589</v>
       </c>
       <c r="D14" s="7">
-        <v>508192</v>
+        <v>591424</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>575</v>
+        <v>767</v>
       </c>
       <c r="I14" s="7">
-        <v>620189</v>
+        <v>841349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>1041</v>
+        <v>1356</v>
       </c>
       <c r="N14" s="7">
-        <v>1128381</v>
+        <v>1432773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>693</v>
+        <v>928</v>
       </c>
       <c r="D15" s="7">
-        <v>755689</v>
+        <v>933362</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4044,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>734</v>
+        <v>958</v>
       </c>
       <c r="I15" s="7">
-        <v>782979</v>
+        <v>1042738</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4059,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1427</v>
+        <v>1886</v>
       </c>
       <c r="N15" s="7">
-        <v>1538668</v>
+        <v>1976100</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4601,55 +4076,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>339</v>
+        <v>1034</v>
       </c>
       <c r="D16" s="7">
-        <v>341938</v>
+        <v>1097255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>191</v>
+        <v>637</v>
       </c>
       <c r="I16" s="7">
-        <v>201389</v>
+        <v>657148</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="M16" s="7">
-        <v>530</v>
+        <v>1671</v>
       </c>
       <c r="N16" s="7">
-        <v>543327</v>
+        <v>1754403</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +4133,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>589</v>
+        <v>2189</v>
       </c>
       <c r="D17" s="7">
-        <v>591424</v>
+        <v>2288054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
-        <v>767</v>
+        <v>2696</v>
       </c>
       <c r="I17" s="7">
-        <v>841349</v>
+        <v>2882432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>1356</v>
+        <v>4885</v>
       </c>
       <c r="N17" s="7">
-        <v>1432773</v>
+        <v>5170487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>928</v>
+        <v>3223</v>
       </c>
       <c r="D18" s="7">
-        <v>933362</v>
+        <v>3385309</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4199,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>3333</v>
       </c>
       <c r="I18" s="7">
-        <v>1042738</v>
+        <v>3539580</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1886</v>
+        <v>6556</v>
       </c>
       <c r="N18" s="7">
-        <v>1976100</v>
+        <v>6924890</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4755,171 +4230,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1034</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1097255</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>637</v>
-      </c>
-      <c r="I19" s="7">
-        <v>657148</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1671</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1754403</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2189</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2288054</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2696</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2882432</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4885</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5170487</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3223</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385309</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3333</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3539580</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6556</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6924890</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4932,8 +4251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309CB736-42DE-4EE9-8F65-8015096D5950}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B34E8C3-49F2-4916-B01F-FDB79FC5A844}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4949,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,49 +4369,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="D4" s="7">
-        <v>17750</v>
+        <v>162605</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="I4" s="7">
-        <v>18580</v>
+        <v>149290</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>459</v>
       </c>
       <c r="N4" s="7">
-        <v>36330</v>
+        <v>311895</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +4420,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>538</v>
       </c>
       <c r="D5" s="7">
-        <v>84232</v>
+        <v>472370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>208</v>
+        <v>973</v>
       </c>
       <c r="I5" s="7">
-        <v>112153</v>
+        <v>576040</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>303</v>
+        <v>1511</v>
       </c>
       <c r="N5" s="7">
-        <v>196385</v>
+        <v>1048410</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +4471,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634975</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4486,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4501,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1970</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360305</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5205,49 +4524,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="D7" s="7">
-        <v>149737</v>
+        <v>279557</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="I7" s="7">
-        <v>137449</v>
+        <v>230190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>401</v>
+        <v>639</v>
       </c>
       <c r="N7" s="7">
-        <v>287186</v>
+        <v>509747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +4575,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>443</v>
+        <v>675</v>
       </c>
       <c r="D8" s="7">
-        <v>399587</v>
+        <v>913307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>765</v>
+        <v>1167</v>
       </c>
       <c r="I8" s="7">
-        <v>482518</v>
+        <v>728461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>1208</v>
+        <v>1842</v>
       </c>
       <c r="N8" s="7">
-        <v>882105</v>
+        <v>1641769</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549324</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +4656,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1609</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169291</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,49 +4679,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="D10" s="7">
-        <v>290961</v>
+        <v>227488</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="I10" s="7">
-        <v>247031</v>
+        <v>169661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
-        <v>639</v>
+        <v>478</v>
       </c>
       <c r="N10" s="7">
-        <v>537992</v>
+        <v>397150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +4730,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>675</v>
+        <v>449</v>
       </c>
       <c r="D11" s="7">
-        <v>748287</v>
+        <v>477192</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
-        <v>1167</v>
+        <v>796</v>
       </c>
       <c r="I11" s="7">
-        <v>813048</v>
+        <v>763705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
-        <v>1842</v>
+        <v>1245</v>
       </c>
       <c r="N11" s="7">
-        <v>1561335</v>
+        <v>1240896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4796,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +4811,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,49 +4834,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="D13" s="7">
-        <v>238564</v>
+        <v>262580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="I13" s="7">
-        <v>181595</v>
+        <v>186186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>478</v>
+        <v>583</v>
       </c>
       <c r="N13" s="7">
-        <v>420159</v>
+        <v>448766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +4885,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>449</v>
+        <v>715</v>
       </c>
       <c r="D14" s="7">
-        <v>490208</v>
+        <v>663619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
-        <v>796</v>
+        <v>1267</v>
       </c>
       <c r="I14" s="7">
-        <v>692776</v>
+        <v>907487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
-        <v>1245</v>
+        <v>1982</v>
       </c>
       <c r="N14" s="7">
-        <v>1182983</v>
+        <v>1571105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926199</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4951,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019871</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5664,55 +4983,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>997</v>
       </c>
       <c r="D16" s="7">
-        <v>271442</v>
+        <v>932230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
-        <v>293</v>
+        <v>1162</v>
       </c>
       <c r="I16" s="7">
-        <v>198566</v>
+        <v>735328</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
-        <v>583</v>
+        <v>2159</v>
       </c>
       <c r="N16" s="7">
-        <v>470007</v>
+        <v>1667558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5040,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>715</v>
+        <v>2377</v>
       </c>
       <c r="D17" s="7">
-        <v>693295</v>
+        <v>2526488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
-        <v>1267</v>
+        <v>4203</v>
       </c>
       <c r="I17" s="7">
-        <v>950503</v>
+        <v>2975692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
-        <v>1982</v>
+        <v>6580</v>
       </c>
       <c r="N17" s="7">
-        <v>1643799</v>
+        <v>5502180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>964737</v>
+        <v>3458718</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5106,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5365</v>
       </c>
       <c r="I18" s="7">
-        <v>1149069</v>
+        <v>3711020</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5121,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8739</v>
       </c>
       <c r="N18" s="7">
-        <v>2113806</v>
+        <v>7169738</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5818,171 +5137,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>997</v>
-      </c>
-      <c r="D19" s="7">
-        <v>968454</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1162</v>
-      </c>
-      <c r="I19" s="7">
-        <v>783221</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2159</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1751675</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2377</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2415610</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4203</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3050997</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6580</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5466607</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384064</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5365</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3834218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8739</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7218282</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
